--- a/doc/ue_ios_enterforground_reactive.xlsx
+++ b/doc/ue_ios_enterforground_reactive.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB07E8A-0384-43D6-A3BD-10056A17C12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A4AA1-EC8F-415A-9B96-83A02160289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="EnterForeground" sheetId="2" r:id="rId2"/>
     <sheet name="BecomeActive" sheetId="3" r:id="rId3"/>
+    <sheet name="潜在问题" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>IOS系统的消息回调</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +318,10 @@
   </si>
   <si>
     <t>[self ToggleSuspend : false];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意很多库都是以来了Enterforground，而如果在Reactive里面做了一些处理，就可能死锁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68ED207-22D5-452B-8702-5C47A57591FA}">
   <dimension ref="B2:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
@@ -1202,4 +1207,26 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8075F26-33B7-4E56-BDB3-BDFBA5BA927C}">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>